--- a/amazon/amazon_extracted.xlsx
+++ b/amazon/amazon_extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,956 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NIVEA Lip Care, Fruity Tinted Lip Balm Variety Pack, Cherry, Strawberry, Blackberry and Watermelon Flavors, 3-in-1 Moisture, Repair and Color, 0.17 Oz Stick, Pack of 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>$5.27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brand: NIVEA; Item Form: Balm; Finish Type: Satin; Skin Type: All; Color: Red || DEEP HYDRATION: These moisturizing lip balms leave lips instantly hydrated and protected from dryness with long-lasting moisture | SUBTLE TINTED LIP BALM: Flavored lip balm leaves lips soft and smooth with a beautiful tint and subtle shine | NOURISHING INGREDIENTS: Lip products enriched with Shea Butter, Nourishing Oils and Vitamins C and E to help moisturize, repair and nourish dry lips | FORMULATED WITHOUT: These vegan lip balms (no animal-derived ingredients) are made with 98% naturally derived ingredients(2) and is formulated without preservatives, phthalates and silicones | DERMATOLOGICALLY-TESTED: NIVEA Lip Care products are dermatologically tested for skin compatibility | FRUITY BULK LIP BALM PACK: This tinted lip balm set includes one 0.17 stick each of NIVEA Lip Care Cherry, Strawberry, Blackberry and Watermelon refreshing, fruity lip tints</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/NIVEA-Lip-Variety-Pack-Flavors/dp/B07Y91BMSK/ref=sr_1_7?crid=DYGTC5K6KTVB&amp;dib=eyJ2IjoiMSJ9.cfcBA2EhwhtstNRHwr77CtN8UJcIaJkE2bJ9wGVZNZeaMUOFd7G5qjciXrZLWY2Qm8zVcuBS043s4zyCRFbBhoQDAszX1l2U31vNNcj6wTGx0BcgdsZzMX-JERGBpB2c8E-MK6opIkslrn7vwNkbWD37aBPgzIAEBd8su_28mbccX8B2HdsTmie2N-uSr8qaIzURYD7-qNeo5IzyXQZzcEq-islFnTSePqVdUr3RTsyNHfWbn6cJL-gjwcSRSwyWm-rXNarEi1IP917WrZXyPYiZjm20ogbXK_TL1oVXKAY.WMAWR17Xd1mn3PlDEotIQbI6A2s1z206M7DQE5Q8yoU&amp;dib_tag=se&amp;keywords=beauty%2Band%2Bpersonal%2Bcare&amp;qid=1752137405&amp;sprefix=personal%2Band%2Bbeauty%2Bcare%2Caps%2C275&amp;sr=8-7&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Good Molecules Yerba Mate Wake Up Eye Gel - Hydrating Under Eye Gel Cream with Hyaluronic Acid and Caffeine - Target Dark Circles and Puffiness - Skin Care for Face</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$5.98</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Skin Type: All, Oily, Sensitive, Dry, Normal; Product Benefits: Hydrating, Anti-Aging, Revitalizing, Anti-Inflammatory, Rejuvenating; Use for: Face; Scent: Unscented; Special Ingredients: Yerba Mate,Hyaluronic Acid,Caffeine,Acetyl Tetrapeptide-5 || BRIGHT AND BEAUTIFUL: Rejuvenate and energize your eyes for a bright fresh look. Embrace newfound confidence with the Good Molecules Wake Up Eye Gel formulated with a combination of powerful ingredients to help you look your best. | GOODBYE PUFFY, TIRED EYES: Notice the difference! This nutrient-packed eye gel works to reinvigorate your eyes! Designed to reduce the signs of tired eyes, puffiness, and dark circles while also hydrating and plumping the skin to reduce the appearance of fine lines. | POTENT FORMULA, POWERFUL INGREDIENTS: Antioxidant-rich, sustainably sourced Yerba Mate works to protect and nourish the skin around your eyes. While caffeine and acetyl tetrapeptide-5 encourage a reduction in swelling and hyaluronic acid helps to plump and firm! | PERFECT ADDITION TO YOUR BEAUTY REGIMEN: Dispense a pea-sized amount and pat around the eye area with your ring finger. Gently massage into the eye contour until fully absorbed avoiding direct contact with your eyes. Can be used in the morning or at night. | GENTLE ENOUGH FOR ALL SKIN TYPES: Powerful enough to bring results and gentle enough for daily use; this gel is suitable for all skin types. Our serum has a pH of 5.2 and is vegan, fragrance-free, and cruelty-free. | FOR BEST RESULTS: Since everyone's skin is unique, we recommend performing a patch test before using this product to ensure compatibility and avoid any potential reactions.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Good-Molecules-Formulated-Revitalize-Fragrance/dp/B091NJQ29P/ref=sr_1_8?crid=DYGTC5K6KTVB&amp;dib=eyJ2IjoiMSJ9.cfcBA2EhwhtstNRHwr77CtN8UJcIaJkE2bJ9wGVZNZeaMUOFd7G5qjciXrZLWY2Qm8zVcuBS043s4zyCRFbBhoQDAszX1l2U31vNNcj6wTGx0BcgdsZzMX-JERGBpB2c8E-MK6opIkslrn7vwNkbWD37aBPgzIAEBd8su_28mbccX8B2HdsTmie2N-uSr8qaIzURYD7-qNeo5IzyXQZzcEq-islFnTSePqVdUr3RTsyNHfWbn6cJL-gjwcSRSwyWm-rXNarEi1IP917WrZXyPYiZjm20ogbXK_TL1oVXKAY.WMAWR17Xd1mn3PlDEotIQbI6A2s1z206M7DQE5Q8yoU&amp;dib_tag=se&amp;keywords=beauty+and+personal+care&amp;qid=1752137405&amp;sprefix=personal+and+beauty+care%2Caps%2C275&amp;sr=8-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cotton Airy Sun Stick SPF 50 Broad Spectrum Korean Matte Sunscreen Stick for Face - Travel Size Sebum Control Sunblock -Vegan, Lightweight, Non-Sticky 0.67 oz</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>$13.91</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Product Benefits: SPF 50, broad spectrum UVA/UVB protection, helps prevent sunburn and premature skin aging, supports hydration and improves skin texture; Sun Protection Factor: 50 Sun Protection Factor (SPF); Item Weight: 19 Grams; Number of Items: 1; Skin Type: All, Combination, Sensitive || AIRY MATTE FINISH, ZERO STICKINESS. No cast. No mess. Just clean, velvety, weightless SPF that works! This broad-spectrum sunblock stick glides on smoothly, leaving an airy soft mattifying finish. It also doubles as a primer, blurring pores and smoothing textured skin with microfine multi-porous powder. Enjoy the sun without worries! | SCIENCE BACKED FORMULA. Sunshine? Bring it on! With SPF 50 Broad Spectrum, this isn’t your ordinary sun stick—it’s a lovechild of serious sun defense and TLC for your skin! Not only does it shield against photoaging, but it also makes your skin look and feel better: +119.2% hydration, +146.4% barrier support, and +105.7% refined texture! | SUN CARE THAT DOES MORE. Packed with skin-loving botanicals like Cotton Extract to lock in moisture and combat external aggressors. The Herb AC Complex works overtime to chill heat-stressed, irritated skin, while Sebum Control P Complex—powered by Pine Leaf, Evening Primrose, and more—keeps oil in check for all-day freshness. | YOUR POCKET-PERFECT SUN STICK. No more chalky hands or bulky bottles! This compact Korean face sunscreen stick is designed to fit in your pocket or bag, making it super easy to reapply wherever you are—gym, brunch, beach day, you name it. It layers like a dream—whether under or over makeup. | CLEAN, VEGAN &amp; GENTLE. Suitable for sensitive skin, this vegan and hypoallergenic face sunblock is gentle for daily use. No animal trials, no harsh stuff—just feel-good sun care that works. With a Skin Irritation Index of 0.00%, it’s perfect for oily, sensitive, or anyone looking for clean beauty with real results.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Cotton-Stick-Spectrum-Korean-Sunscreen/dp/B0F67CH5N9/ref=sr_1_10?crid=DYGTC5K6KTVB&amp;dib=eyJ2IjoiMSJ9.cfcBA2EhwhtstNRHwr77CtN8UJcIaJkE2bJ9wGVZNZeaMUOFd7G5qjciXrZLWY2Qm8zVcuBS043s4zyCRFbBhoQDAszX1l2U31vNNcj6wTGx0BcgdsZzMX-JERGBpB2c8E-MK6opIkslrn7vwNkbWD37aBPgzIAEBd8su_28mbccX8B2HdsTmie2N-uSr8qaIzURYD7-qNeo5IzyXQZzcEq-islFnTSePqVdUr3RTsyNHfWbn6cJL-gjwcSRSwyWm-rXNarEi1IP917WrZXyPYiZjm20ogbXK_TL1oVXKAY.WMAWR17Xd1mn3PlDEotIQbI6A2s1z206M7DQE5Q8yoU&amp;dib_tag=se&amp;keywords=beauty+and+personal+care&amp;qid=1752137405&amp;sprefix=personal+and+beauty+care%2Caps%2C275&amp;sr=8-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bikini Trimmer for Women - Painless Electric Razors for Silk Skin,Cordless Body Shaver for Trip,Replaceable Lady Facial Razor, IPX7 Waterproof&amp;Easy Cleaning, Ceramic Blade, USB Charge Dock Pink</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>$24.22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Brand: Risina; Recommended Uses For Product: Back Hair, Beard, Chest, Lip, Genital, Mustache, Pubic, Armpit, Face, Eyebrow, Leg; Special Feature: Dry Shave, Waterproof, Cordless, Detachable Head, Rechargeable; Power Source: Battery Powered; Model Name: TC-017 || 💞【2-in-1 Bikini Trimmer】The Risina bikini trimmer for women features two efficient shaving heads capable of removing hairs on various parts of the body. One head is a body shaver, perfect for arms, legs, bikini areas, or other body parts, while the other is a facial shaver head used to remove hairs on the cheeks, chins, and upper lips. | 🏆【Highly Efficient &amp; Smooth Shaving】Our bikini razor is hypoallergenic and gentle on even the most sensitive skin. The bikini trimmer gives you a precise and smooth hair-shaving experience without the discomfort of skin pulling, irritation, injuries, and pain. Plus, Goose Bumps caused by hair removal will be a past. | 🍃【Hypoallergenic &amp; Painless】Featuring hypoallergenic stainless steel and delicate ceramic blades, our bikini trimmer ensures a pain-free, irritation-free shave. The sharp, efficient blades glide smoothly along the contours of your face and bikini area, providing a comfortable and effective hair removal experience, even for sensitive skin. | 🔋【Long-Lasting Battery】Our cordless electric shaver for women is a good companion for a trip, offering you quick grooming on the go. Equipped with a USB cable for convenient charging outdoors or on vacation, the bikini trimmer runs up to 90 minutes on 1.5 hours charge. Let’s enjoy extra portability with our lightweight trimmer. | 👙【Stylish Essential】This bikini trimmer is a beauty tool that is essential for your sparkling beauty. It is specially designed for modern women seeking to updated fashion. You can beautify and revitalize yourself in no time, no matter if you use our body shaver after shower, or before make-up.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Bikini-Trimmer-Women-Replaceable-Waterproof/dp/B0D4DC3GMS/ref=sr_1_11?crid=DYGTC5K6KTVB&amp;dib=eyJ2IjoiMSJ9.cfcBA2EhwhtstNRHwr77CtN8UJcIaJkE2bJ9wGVZNZeaMUOFd7G5qjciXrZLWY2Qm8zVcuBS043s4zyCRFbBhoQDAszX1l2U31vNNcj6wTGx0BcgdsZzMX-JERGBpB2c8E-MK6opIkslrn7vwNkbWD37aBPgzIAEBd8su_28mbccX8B2HdsTmie2N-uSr8qaIzURYD7-qNeo5IzyXQZzcEq-islFnTSePqVdUr3RTsyNHfWbn6cJL-gjwcSRSwyWm-rXNarEi1IP917WrZXyPYiZjm20ogbXK_TL1oVXKAY.WMAWR17Xd1mn3PlDEotIQbI6A2s1z206M7DQE5Q8yoU&amp;dib_tag=se&amp;keywords=beauty%2Band%2Bpersonal%2Bcare&amp;qid=1752137405&amp;sprefix=personal%2Band%2Bbeauty%2Bcare%2Caps%2C275&amp;sr=8-11&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MasterMedi Tongue Scraper with Case Easy to Use Tongue Scraper for Adults, Tongue Cleaner for Oral Care &amp; Hygiene (Single Pack (with Travel Case))</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>$4.39</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/MasterMedi-Scraper-Treatment-Stainless-Scrapers/dp/B0B257614L/ref=sr_1_13?crid=DYGTC5K6KTVB&amp;dib=eyJ2IjoiMSJ9.cfcBA2EhwhtstNRHwr77CtN8UJcIaJkE2bJ9wGVZNZeaMUOFd7G5qjciXrZLWY2Qm8zVcuBS043s4zyCRFbBhoQDAszX1l2U31vNNcj6wTGx0BcgdsZzMX-JERGBpB2c8E-MK6opIkslrn7vwNkbWD37aBPgzIAEBd8su_28mbccX8B2HdsTmie2N-uSr8qaIzURYD7-qNeo5IzyXQZzcEq-islFnTSePqVdUr3RTsyNHfWbn6cJL-gjwcSRSwyWm-rXNarEi1IP917WrZXyPYiZjm20ogbXK_TL1oVXKAY.WMAWR17Xd1mn3PlDEotIQbI6A2s1z206M7DQE5Q8yoU&amp;dib_tag=se&amp;keywords=beauty%2Band%2Bpersonal%2Bcare&amp;qid=1752137405&amp;sprefix=personal%2Band%2Bbeauty%2Bcare%2Caps%2C275&amp;sr=8-13&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Schick Hydro Silk Touch-Up Dermaplaning Tool with Precision Cover, 3ct | Dermaplane Razor, Face Razors for Women, Peach Fuzz Remover</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>$4.79</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Brand: Schick Hydro Silk; Number of Blades: 1; Unit Count: 3 Count; Special Feature: Travel Size; Skin Type: All || QUICK, EASY TOUCH-UPS – Schick Hydro Silk Touch-Up is a versatile beauty tool that works as an eyebrow shaper, facial razor and dermaplaning tool to remove fine hairs. | DERMAPLANING TOOL – Smooths and gently exfoliates by dermaplaning. | EXPERT-LEVEL PRECISION – Need a last-minute touch-up at home or on the go? This slim, portable-sized travel razor with a precision cover helps you expertly trim and shape eyebrows. | DERMATOLOGIST TESTED – Dermaplaning tool uniquely designed with fine micro-guards to help protect delicate skin from nicks and irritation. | RECYCLABLE RAZOR – After using, remember to recycle these face razors through our recycling program | INCLUDES – 3 disposable face razors, so you can keep up with your dermaplaning routine!</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Schick-Multipurpose-Exfoliating-Dermaplaning-Precision/dp/B0787GLBMV/ref=sr_1_16?crid=DYGTC5K6KTVB&amp;dib=eyJ2IjoiMSJ9.cfcBA2EhwhtstNRHwr77CtN8UJcIaJkE2bJ9wGVZNZeaMUOFd7G5qjciXrZLWY2Qm8zVcuBS043s4zyCRFbBhoQDAszX1l2U31vNNcj6wTGx0BcgdsZzMX-JERGBpB2c8E-MK6opIkslrn7vwNkbWD37aBPgzIAEBd8su_28mbccX8B2HdsTmie2N-uSr8qaIzURYD7-qNeo5IzyXQZzcEq-islFnTSePqVdUr3RTsyNHfWbn6cJL-gjwcSRSwyWm-rXNarEi1IP917WrZXyPYiZjm20ogbXK_TL1oVXKAY.WMAWR17Xd1mn3PlDEotIQbI6A2s1z206M7DQE5Q8yoU&amp;dib_tag=se&amp;keywords=beauty%2Band%2Bpersonal%2Bcare&amp;qid=1752137405&amp;sprefix=personal%2Band%2Bbeauty%2Bcare%2Caps%2C275&amp;sr=8-16&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Amazon Basics Trash Bags, Tall Kitchen Drawstring, Unscented, 13 Gallon, 45 Count, Pack of 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>$6.84</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Brand: Amazon Basics; Capacity: 13 Gallons; Unit Count: 45 Count; Recommended Uses For Product: Food Waste; Material Feature: Scent Free; Color: White; Material: Plastic; : ; : ; :  || DURABLE STRENGTH: Crafted with 0.9 mil thickness, these sturdy 13-gallon kitchen trash bags withstand daily kitchen demands without tearing | SPACIOUS CAPACITY: With a spacious size, our 13-gallon drawstring trash bags provide ample room for waste, making it easy to manage household trash | EASY TO USE: The convenient red drawstring closure on our 13-gallon drawstring kitchen garbage bags provides easy tying and carrying for disposal | FRESH/UNSCENTED: Enjoy a clean fresh scent or unscented with our 13-gallon scented trash bags that helps mask unpleasant odors, keeping your kitchen smelling pleasant | VERSATILE OPTIONS: Available in multiple scents, these tall, scented trash bags offer flexibility to meet your unique needs</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Basics-Kitchen-Drawstring-Gallon/dp/B09CD5T2QN/ref=sr_1_1_ffob_sspa?crid=L6VEEC0E4282&amp;dib=eyJ2IjoiMSJ9.vpZd4hMmUUQYY8q-EtJbt83NKAgfEX9x00MdU1tz5YONPm9PycOy4jULqoeErCZBrZ6FdiFdGrJkWzQ_4BH44uCyBMQnVGrQ-5DBCft71Vsn-nwg1Qo0MkM0qj_m8f7G2oGqxoLnZSOBxGD4_nwpumqc_EE5hfw7iCL-b3Revh5J8RUe5j_inHGL_EsixpwWsVpwhOKdi2UbN9YKT8TySmTvnUwPrlS3neXYGx5IR5ST06rlLiQMurcnuTTWrONKrosPPxlbSDioEfI3O9rM_-r5bamrUYFrGogkG2hPG4o.dsTOTCGb5jGKA4qUPkwRm_UzT1HWNeu2lr_kntWGw44&amp;dib_tag=se&amp;keywords=home%2Band%2Bkitchen%2Bproducts&amp;qid=1752138928&amp;sprefix=home%2Band%2Bkitchen%2Caps%2C315&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Compost Bags, Compostable Trash Bags 2.6 Gallon Compostable Bags 100 Count Small Compost Bags for Countertop bin Extra Thick 0.71 Mil. ASTM D6400 Certified By BPI and TÜV AUSTRIA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>$16.95</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Brand: Primode; Capacity: 2.6 Gallons; Unit Count: 100 Count; Recommended Uses For Product: Yard Waste, Food Waste; Material Feature: Scent Free, Compostable, Biodegradable, Heavy Duty, Plant Based; Color: Light Green; Material: Plant-based bioplastics; : ; : ; :  || 2.6 GALLON SIZE: Each of our compost bags has a capacity of 2.6 gallons, Measures 16.3 x 16.5 inch Extra Thick 0.71 Mil, pack of 100. Easy to use and just the right size, perfect for compost pails on the counter top or small kitchen trash cans, small compost bags for countertop bin. | COMPOSTABLE: The food waste bags are fully compostable. Ideal to use for kitchen trash bag, food waste collection bag, bag comes with A fresh natural light green color. | US BPI- ASTM D6400 CERTIFIED, TÜV AUSTRIA: Our compostable bags meet BPI requirements By the city for safety standards. Also meets TÜV AUSTRIA requirements for backyard composting | STORE &amp; USE: Store bags in a cool, dry place avoid exposure to heat. For best results its recommended to change the bag every 1-2 days. Please purchase only bags for 10 months and use within the 10 month of purchase.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Primode-Compostable-ASTMD6400-Biodegradable-Certified/dp/B06WD5JY67/ref=sr_1_2_sspa?crid=L6VEEC0E4282&amp;dib=eyJ2IjoiMSJ9.vpZd4hMmUUQYY8q-EtJbt83NKAgfEX9x00MdU1tz5YONPm9PycOy4jULqoeErCZBrZ6FdiFdGrJkWzQ_4BH44uCyBMQnVGrQ-5DBCft71Vsn-nwg1Qo0MkM0qj_m8f7G2oGqxoLnZSOBxGD4_nwpumqc_EE5hfw7iCL-b3Revh5J8RUe5j_inHGL_EsixpwWsVpwhOKdi2UbN9YKT8TySmTvnUwPrlS3neXYGx5IR5ST06rlLiQMurcnuTTWrONKrosPPxlbSDioEfI3O9rM_-r5bamrUYFrGogkG2hPG4o.dsTOTCGb5jGKA4qUPkwRm_UzT1HWNeu2lr_kntWGw44&amp;dib_tag=se&amp;keywords=home%2Band%2Bkitchen%2Bproducts&amp;qid=1752138928&amp;sprefix=home%2Band%2Bkitchen%2Caps%2C315&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Philips Hue A19 LED Smart Light Bulb - White and Color Ambiance - 60W Indoor Light Bulb - Control with Hue App - Works with Alexa, Google Assistant and Apple Homekit - 3 Pack</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>$79.64</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brand: Philips Hue; Light Type: LED; Special Feature: Dimmable, Color Changing; Wattage: 9.5 watts; Bulb Shape Size: A19 || WHAT’S IN THE BOX - Includes three White and Color Ambiance smart 60W-equivalent A19 color-changing light bulb; Perfect for general lighting anywhere in your home | UNLOCK THE FULL POWER OF HUE - Add a Hue Bridge to enjoy automations, control from anywhere in the world, and a secure, stable connection that won’t drain your Wi-Fi. Use Matter to connect your smart home devices to your Hue smart lighting system. | MILLIONS OF COLORS - The White &amp; Color Ambiance range offers both warm-to-cool white and millions of colors straight out of the box. Simply screw it in! Once in your fixture, our smart LED bulbs can dim, brighten, and set the mood instantly. | ENJOY PRESET SCENES - Light your routines throughout the day; Set a 24-hour natural light scene that mimics the sun or choose light to help you focus, unwind, and more | VOICE CONTROL - Convenient smart control; Set up voice control in the Hue app and use simple voice commands to control your lights with Alexa or Google Assistant | PERSONALIZE YOUR LIGHT - Create the ultimate mood lighting with dynamic light effects that show subtle changes in brightness and color; Customize in the app</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Philips-Hue-Bluetooth-Compatible-Assistant/dp/B08D9N7RJ4/ref=sr_1_4_sspa?crid=L6VEEC0E4282&amp;dib=eyJ2IjoiMSJ9.vpZd4hMmUUQYY8q-EtJbt83NKAgfEX9x00MdU1tz5YONPm9PycOy4jULqoeErCZBrZ6FdiFdGrJkWzQ_4BH44uCyBMQnVGrQ-5DBCft71Vsn-nwg1Qo0MkM0qj_m8f7G2oGqxoLnZSOBxGD4_nwpumqc_EE5hfw7iCL-b3Revh5J8RUe5j_inHGL_EsixpwWsVpwhOKdi2UbN9YKT8TySmTvnUwPrlS3neXYGx5IR5ST06rlLiQMurcnuTTWrONKrosPPxlbSDioEfI3O9rM_-r5bamrUYFrGogkG2hPG4o.dsTOTCGb5jGKA4qUPkwRm_UzT1HWNeu2lr_kntWGw44&amp;dib_tag=se&amp;keywords=home%2Band%2Bkitchen%2Bproducts&amp;qid=1752138928&amp;sprefix=home%2Band%2Bkitchen%2Caps%2C315&amp;sr=8-4-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mixing Bowls with Airtight Lids Set, 26PCS Stainless Steel Khaki Bowls with Grater Attachments, Non-Slip Bottoms &amp; Kitchen Gadgets Set, Size 7, 4, 2.5, 2.0,1.5, 1QT, Great for Mixing &amp; Serving</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>$33.99</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bowl Material: Stainless Steel; Number of Pieces: 26; Brand: Umite Chef; Color: Khaki; Style: Classic || AIRTIGHT LIDS &amp; 3 GRATER ATTACHMENTS:The airtight lids that come with this mixing bowl set make it easy to store ingredients and leftovers without worrying about spills or leaks. 3.5qt had a removable lid inside the main lid, for adding contents or pairing it with your blender without removing the entire lid to prevent splash. This bowl set comes with 3 different grater attachments (slicing/grating/shredding) just shred or slice right into the bowl! | NON-SLIP SILICONE BOTTOMS: The rubber on the bottom of the mixing bowls is for gripping and staying put which prevents sliding on the countertops when mixing and also protects the desk from high temperatures. ATTENTION: The stainless steel bowls needs to be cleaned in time after use, to avoid excess stains caused by rust, especially oil stains | NESTING BOWLS &amp; DISHWASHER SAFE: These kitchen serving bowls can be nested together and offer space-efficient storage in neat kitchen cupboards. The mirrored interior makes cleaning a breeze, This mixing bowl set also is dishwasher-safe, just put it in the dishwasher after use, and you will get a new bowl set. But pay attention that the lid is suitable for hand washing, as the heat of the dishwasher can warp them | 6 SIZES BOWLS &amp; EXTRA KITCHEN TOOLS SET: The range of sizes from 7QT down to 1QT. Each bowl comes with a QT label to make it easier to choose the right size, Bowl sizes fit on standard-size refrigerator shelves and cabinets. Comes with a brush, spatula, whisk, measuring spoons | DURABLE STAINLESS STEEL: The stainless steel construction is durable. This bowl set is constructed of a mirror-finish interior and matte-finish exterior ensuring dent resistance and rustproof. Food-grade stainless steel will not corrode or produce spots after long time use, please attention that after each cleaning, it is necessary to dry the inside with a cloth to prevent the corrosion of the remaining water on the bowl</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Airtight-Stainless-Attachments-Non-Slip-Bottoms/dp/B0BWHJ1FNK/ref=sr_1_5?crid=L6VEEC0E4282&amp;dib=eyJ2IjoiMSJ9.vpZd4hMmUUQYY8q-EtJbt83NKAgfEX9x00MdU1tz5YONPm9PycOy4jULqoeErCZBrZ6FdiFdGrJkWzQ_4BH44uCyBMQnVGrQ-5DBCft71Vsn-nwg1Qo0MkM0qj_m8f7G2oGqxoLnZSOBxGD4_nwpumqc_EE5hfw7iCL-b3Revh5J8RUe5j_inHGL_EsixpwWsVpwhOKdi2UbN9YKT8TySmTvnUwPrlS3neXYGx5IR5ST06rlLiQMurcnuTTWrONKrosPPxlbSDioEfI3O9rM_-r5bamrUYFrGogkG2hPG4o.dsTOTCGb5jGKA4qUPkwRm_UzT1HWNeu2lr_kntWGw44&amp;dib_tag=se&amp;keywords=home%2Band%2Bkitchen%2Bproducts&amp;qid=1752138928&amp;sprefix=home%2Band%2Bkitchen%2Caps%2C315&amp;sr=8-5&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10 Inch Microwave Food Cover &amp; Collapsible Silicone Mat - Splatter Guard, Plate Holder &amp; Kitchen Colander for Meal Prep, Charcoal</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$9.99</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Material: Polypropylene, Silicone, Plastic; Color: Charcoal; Brand: LekDrok; Style: Bowl,Can,Collapsible,Jar,Microwave,Pot; Product Dimensions: 10.6"L x 10.6"W || 【Perfect Match】LekDrok Microwave Food Cover and Mat 10", Mat as Bowl Holder to Grab Food immediately. Cover to Keep clean microwave top and 4-sides. Mat to keep clean glass turntable. And with the mat, no burning, no Waiting. | 【Multi-Purpose】Microwave Cover, as colander and washing basket for Vegetables and fruits. Multi-purpose mat, as microwave Mat, Silicone Trivet, Pot Holder, Utensils Rest, Place Mat, Hot Pad, Jar Opener, Coffee Coaster, Dish Drying Mat for Kitchen Counter. | 【Easy To Use】Microwave Splatter Guard Diameter is 10.5 inch. It fits most bowls and plates. The food cover height can be freely changed from 0.75” to 3.4” inch. It’s easy to Collapsible and storage. | 【Easy To Grid】LekDrok Microwave Lid is designed by a Easy-Grid-Handle. It is easy to fetch the cover out of microwave without burning hands compared to others grid-handle which is short and easy to slip. | 【Safety Material】Microwave cover is made of PP plastic and mat is made of Food Grade silicone material. They are heat resistance. Mat can be up to 572°F, Microwave, Oven, Dishwasher Safe.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/LekDrok-Microwave-Splatter-Collapsible-Multi-Purpose/dp/B0C38WVJVQ/ref=sr_1_7?crid=L6VEEC0E4282&amp;dib=eyJ2IjoiMSJ9.vpZd4hMmUUQYY8q-EtJbt83NKAgfEX9x00MdU1tz5YONPm9PycOy4jULqoeErCZBrZ6FdiFdGrJkWzQ_4BH44uCyBMQnVGrQ-5DBCft71Vsn-nwg1Qo0MkM0qj_m8f7G2oGqxoLnZSOBxGD4_nwpumqc_EE5hfw7iCL-b3Revh5J8RUe5j_inHGL_EsixpwWsVpwhOKdi2UbN9YKT8TySmTvnUwPrlS3neXYGx5IR5ST06rlLiQMurcnuTTWrONKrosPPxlbSDioEfI3O9rM_-r5bamrUYFrGogkG2hPG4o.dsTOTCGb5jGKA4qUPkwRm_UzT1HWNeu2lr_kntWGw44&amp;dib_tag=se&amp;keywords=home%2Band%2Bkitchen%2Bproducts&amp;qid=1752138928&amp;sprefix=home%2Band%2Bkitchen%2Caps%2C315&amp;sr=8-7&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TrendPlain 16oz/470ml Glass Olive Oil Sprayer for Cooking – 2 in 1 Olive Oil Dispenser Bottle for Kitchen Gadgets and Air Fryer Accessories, Salad, BBQ - Black</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>$7.99</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Brand: TrendPlain; Color: Black; Material: Glass; Capacity: 470 Milliliters; Recommended Uses For Product: Cooking || Lifetime Assurance: We stand behind the quality of our oil dispenser for kitchen. If you experience any issues or are not completely satisfied, simply reach out to us—anytime. Our lifetime support ensures you can use this kitchen essential with confidence and peace of mind. | Dual Dispensing: This oil mister offers both spray and pour options for total control while cooking. It’s a versatile oil dispenser bottle spray and pour as needed to keep your kitchen clean, organized, and efficient. | Precision Spray Nozzle: The olive oil spray bottle features a nozzle that delivers a fine mist or steady stream, offering precise control. It’s perfect for drizzling or spraying, making it an essential oil bottles for kitchen. | Control Oil Intake: Each spray dispenses 0.15g of oil, helping you manage your daily intake. This cooking oil sprayer is designed for healthier, more controlled cooking with minimal waste. | BPA-Free &amp; Safe: Crafted from BPA-free glass, this cooking oil dispenser is odorless, non-toxic, and heat-resistant. It’s a safe and healthy addition to your kitchen essentials for everyday cooking.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TrendPlain-16oz-Dispenser-Bottle-Kitchen/dp/B0CJF94M8J/ref=sr_1_8?crid=L6VEEC0E4282&amp;dib=eyJ2IjoiMSJ9.vpZd4hMmUUQYY8q-EtJbt83NKAgfEX9x00MdU1tz5YONPm9PycOy4jULqoeErCZBrZ6FdiFdGrJkWzQ_4BH44uCyBMQnVGrQ-5DBCft71Vsn-nwg1Qo0MkM0qj_m8f7G2oGqxoLnZSOBxGD4_nwpumqc_EE5hfw7iCL-b3Revh5J8RUe5j_inHGL_EsixpwWsVpwhOKdi2UbN9YKT8TySmTvnUwPrlS3neXYGx5IR5ST06rlLiQMurcnuTTWrONKrosPPxlbSDioEfI3O9rM_-r5bamrUYFrGogkG2hPG4o.dsTOTCGb5jGKA4qUPkwRm_UzT1HWNeu2lr_kntWGw44&amp;dib_tag=se&amp;keywords=home%2Band%2Bkitchen%2Bproducts&amp;qid=1752138928&amp;sprefix=home%2Band%2Bkitchen%2Caps%2C315&amp;sr=8-8&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Home Zone Living 13 Gallon Kitchen Trash Can with Dual Compartments for Recycling, Stainless Steel, Silver, 50 Liters Total, Gen 2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$98.99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Brand: Home Zone Living; Capacity: 13 Gallons; Color: Silver V2; Opening Mechanism: Step-On; Material: Stainless Steel, Polypropylene; Recommended Uses For Product: Household Waste, Recycling; Room Type: Kitchen, Home Office; : ; : ; :  || Dual Compartments: Simplify your recycling process with separate bins for waste and recyclables; managing household waste has never been easier for you | Space-Saving Design: Its slim profile fits easily in tight corners; making it ideal for any room at home, even those with limited space | Easy Bag Changes: Install your trash bags quickly and easily with the included rubber band on the removable inner buckets; helping prevent spills and overflow when you are taking out the trash | Quiet and Convenient: The smooth, quiet operation of the foot pedal and the soft-close lid create a peaceful environment in your home | Custom Fit Trash Bags Available: Compatible with our Liner Codes 20R and 30R; offering a seamless fit for your trash bags | Hands-Free Operation: The foot pedal allows for easy and hands-free waste disposal, even when your hands are full | Enjoy Peace of Mind: Our commitment to your well-being extends beyond the product itself. Should you have any questions or require assistance, our dedicated support team in the USA is readily available to assist you via our website or social media platforms</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Home-Zone-Living-Compartments-Recycling/dp/B0F5YBGD8W/ref=sxin_17_pa_sp_search_thematic_sspa?content-id=amzn1.sym.59b20fae-6567-4931-bbdf-becb1c92fa78%3Aamzn1.sym.59b20fae-6567-4931-bbdf-becb1c92fa78&amp;crid=L6VEEC0E4282&amp;cv_ct_cx=home+and+kitchen+products&amp;keywords=home+and+kitchen+products&amp;pd_rd_i=B0F5YBGD8W&amp;pd_rd_r=62ad83aa-e100-4242-805c-bb77116568f7&amp;pd_rd_w=4qEh5&amp;pd_rd_wg=jdjt7&amp;pf_rd_p=59b20fae-6567-4931-bbdf-becb1c92fa78&amp;pf_rd_r=29C2NKAKK1T155FQNS3Y&amp;qid=1752138928&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=home+and+kitchen%2Caps%2C315&amp;sr=1-1-7efdef4d-9875-47e1-927f-8c2c1c47ed49-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;psc=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bamboo Cutting Board, Durable Wood Cutting Boards for Kitchen with Deep Juice Grooves &amp; Built-in Handles, Ideal Charcuterie &amp; Chopping for Meat, Vegetables and Fruits Ideal Kitchen Gifts</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>$31.96</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Brand: keechee; Color: Carbonized Bamboo(Brown); Product Dimensions: 15"L x 10"W x 0.6"Th; Material: Bamboo; Recommended Uses For Product: Party, Friend, Fruit, Entertain, Family, Gifts, Cheese, Barbecue, Vegetable, Bread, Meat; Shape: Rectangular; Product Care Instructions: Hand Wash Only; : ; : ; :  || 𝐖𝐨𝐨𝐝 𝐂𝐮𝐭𝐭𝐢𝐧𝐠 𝐁𝐨𝐚𝐫𝐝 𝐨𝐟 𝟑 - Keechee offers a versatile set with sizes including 15x10 inches 12x8 inches and 9x6 inches. accommodating all your cutting needs from meats and vegetables to fruits and breads. This variety ensures you always have the perfect board for any task. | 𝐔𝐩𝐠𝐫𝐚𝐝𝐞 𝐁𝐚𝐦𝐛𝐨𝐨 𝐂𝐮𝐭𝐭𝐢𝐧𝐠 𝐁𝐨𝐚𝐫𝐝𝐬 - Our cutting boards undergo a thermal treatment at 500°F (260°C), a process known as carbonization. This treatment enhances the bamboo's stability, significantly reduces moisture absorption, and gives the board a rich, dark hue that complements any kitchen décor. | 𝐒𝐭𝐮𝐫𝐝𝐲 𝐂𝐮𝐭𝐭𝐢𝐧𝐠 𝐁𝐨𝐚𝐫𝐝𝐬 - Experience unparalleled durability with Keechee’s cutting board set, which uses a cross-laminated technique. Each layer of bamboo is precisely interlocked to create a robust structure that resists warping and cracking. | 𝐁𝐞𝐧𝐞𝐟𝐢𝐭 𝐎𝐮𝐫 𝐇𝐨𝐦𝐞 - Keechee's cutting board set is crafted from sustainably harvested quality bamboo forests(Bamboo grows quickly and a single bamboo can be harvested multiple times). Known for its natural strength and eco-friendliness, our bamboo provides a durable and environmentally responsible choice for your kitchen. | 𝐋𝐨𝐧𝐠-𝐋𝐚𝐬𝐭𝐢𝐧𝐠 𝐏𝐚𝐫𝐭𝐧𝐞𝐫 - Reduced water absorption to 5% by professional carbonization treatment, effectively preventing cracking and molding. This keeps the board stable and looking like new, even with long-term use. | 𝐄𝐚𝐬𝐲 𝐂𝐥𝐞𝐚𝐧 &amp; 𝐌𝐚𝐢𝐧𝐭𝐚𝐢𝐧 - Benefiting from very low water absorption, they can be simply cleaned after use, and it is recommended that the boards be maintained with natural mineral oil. Our chopping boards also come with hanging holes for hanging to dry, saving space in your kitchen. | 𝐈𝐧𝐬𝐢𝐝𝐞 𝐇𝐚𝐧𝐝𝐥𝐞𝐬 - Our cutting boards come with built-in handles for easy maneuvering, making it simple to transfer ingredients from your kitchen to the stove or use as a serving tray, you won’t have to worry about having butter fingers &amp; dropping your food. Whether you're preparing food or serving guests, Keechee’s thoughtful design ensures hassle-free handling.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Cutting-Durable-Charcuterie-Chopping-Vegetables/dp/B0D7M8QB9Y/ref=sxin_17_pa_sp_search_thematic_sspa?content-id=amzn1.sym.59b20fae-6567-4931-bbdf-becb1c92fa78%3Aamzn1.sym.59b20fae-6567-4931-bbdf-becb1c92fa78&amp;crid=L6VEEC0E4282&amp;cv_ct_cx=home%2Band%2Bkitchen%2Bproducts&amp;keywords=home%2Band%2Bkitchen%2Bproducts&amp;pd_rd_i=B0D7M8QB9Y&amp;pd_rd_r=62ad83aa-e100-4242-805c-bb77116568f7&amp;pd_rd_w=4qEh5&amp;pd_rd_wg=jdjt7&amp;pf_rd_p=59b20fae-6567-4931-bbdf-becb1c92fa78&amp;pf_rd_r=29C2NKAKK1T155FQNS3Y&amp;qid=1752138928&amp;sbo=9ZOMT9Jm0JH%2Ft%2BWi68iDSA%3D%3D&amp;sprefix=home%2Band%2Bkitchen%2Caps%2C315&amp;sr=1-2-7efdef4d-9875-47e1-927f-8c2c1c47ed49-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mueller Pro-Series 10-in-1, 8 Blade Vegetable Chopper, Onion Mincer, Cutter, Dicer, Egg Slicer with Container, French Fry Cutter Potatoe Slicer, Home Essentials &amp; Kitchen Gadgets, Salad Chopper</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>$23.97</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Brand: Mueller; Product Dimensions: 11.18"L x 5.47"W x 5.2"H; Material: Stainless Steel, MC-710 GG; Color: White Sand/Gray; Special Feature: Manual, Multipurpose; Recommended Uses For Product: Egg, Vegetable; Product Care Instructions: Dishwasher Safe; : ; : ; :  || The Original Pro Chopper Refined Since 2013 - Another well marketed lower quality white/black model claims to be the original. More restaurants use Mueller than all the others combined because of our quality.. Effortlessly chop, slice, and dice your ingredients with ease using our tough as nails chopper. It's simple to use, set up, and clean, saving you time and energy during meal preparation. Become a kitchen pro with this must-have kitchen tool. | 8 Awesome Blades For the Price of 4 - Three different sized chopper blades and 5 interchangeable blades for slicing, julienne, grating &amp; shredding offer the functionality of multiple kitchen tools in just one, highly versatile, kitchen gadget. The high-quality stainless-steel blades will create perfectly chopped onions, tomatoes, and peppers for salsa, or shred an entire cabbage for coleslaw in no time. | Unmatched Quality - Free-up countertop space with the Food Container. Use the Food Holder while cutting small vegetables and fruits. This prevents food from slipping while slicing it. It also makes it clean, safe, and easy to work with. No more hassles of washing and wiping. Dismantle it and just put it in dishwasher. Cleans easily in minutes with the complementary scrubbing fork. Its compact size allows you to store it almost anywhere. | Make Incredible Meals in Half the Time – Busy lifestyles make us fall into the fast-food trap. It can take a lot of time and effort to dice, chop and slice the ingredients of a desired dish. Do not despair. Our multi-functional tool makes this process less time-consuming making it easier to add vegetables to your meals. That being said, you’re less likely to reach for unhealthy options. From now on, enjoy having more time for your family without missing out on any of the important nutrition.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Mueller-Austria-Vegetable-Chopper-Mandoline/dp/B08N9Q24M9/ref=sr_1_10?crid=L6VEEC0E4282&amp;dib=eyJ2IjoiMSJ9.vpZd4hMmUUQYY8q-EtJbt83NKAgfEX9x00MdU1tz5YONPm9PycOy4jULqoeErCZBrZ6FdiFdGrJkWzQ_4BH44uCyBMQnVGrQ-5DBCft71Vsn-nwg1Qo0MkM0qj_m8f7G2oGqxoLnZSOBxGD4_nwpumqc_EE5hfw7iCL-b3Revh5J8RUe5j_inHGL_EsixpwWsVpwhOKdi2UbN9YKT8TySmTvnUwPrlS3neXYGx5IR5ST06rlLiQMurcnuTTWrONKrosPPxlbSDioEfI3O9rM_-r5bamrUYFrGogkG2hPG4o.dsTOTCGb5jGKA4qUPkwRm_UzT1HWNeu2lr_kntWGw44&amp;dib_tag=se&amp;keywords=home%2Band%2Bkitchen%2Bproducts&amp;qid=1752138928&amp;sprefix=home%2Band%2Bkitchen%2Caps%2C315&amp;sr=8-10&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4-Pack Damp Clean Duster Sponge,Reusable Magic Dusting Sponge Brush for Cleaning Blinds, Glass, Baseboards,Vents,Railings,Mirrors,Window Track Grooves and Faucets (Grey,Yellow,Pink,Green)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>$8.39</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Brand: Jeymei; Material: Sponge; Recommended Uses For Product: General cleaning and dust removal for various surfaces in the home; Surface Recommendation: Stone; Color: Gray/Pink/Green/Yellow; Special Feature: Long Lasting; Product Dimensions: 4.1"L x 2.3"W x 1.7"Th; : ; : ; :  || Damp Clean Duster Sponge---Jeymei damp clean duster sponge can help you easily remove dust, debris, hair, and stains in your home, so that you no longer worry about dirty cleaning! | Wear-resistant and Sturdy---The high-density cleaning sponge needs to be soaked and softened before each use, and it can be reused after washing and drying. The U-shaped groove design of the sponge cleaning brush is easier to remove dust particles and has strong versatility. | Strong Water Absorption---Dense water absorption holes can absorb a large amount of water and have strong water absorption. After the dusting sponges is fully soaked, it will become softer and have better cleaning power. | Package Contents---Contains 4 pieces of Jeymei baseboard cleaner sponges in different colors: gray, pink, green, and yellow.Warm Tip: Pre-moistened sponge. Packaging has water vapor. | Multiple Use---The wet dust sponge is suitable for cleaning baseboards, vents, railings, bedside table,track grooves of windows, faucets, blinds.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Jeymei-4-Pack-Clean-Duster-Sponge/dp/B0CPDWBSRZ/ref=sr_1_1?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health%2Band%2Bhousehold&amp;qid=1752139042&amp;sprefix=health%2Band%2Bhousehol%2Caps%2C321&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Portable Cordless Heating Pad, Heating Pad for Back Pain with 3 Heat Levels &amp; 3 Vibration Massage Modes, Portable Electric Fast Heating Belly Wrap Belt for Women and Girl(Pink)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>$15.59</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Special Feature: Portable, Automatic Shut Off, Breathable; Material: Graphene; Brand: voligo; Color: Pink; Item Weight: 350 Grams || Fast Heating Pad - Heating Pad utilizes the latest graphene technology, allowing it to heat up in just three seconds and reach your desired temperature quickly. Experience instant warmth and comfort with our fast heating device. | Adjustable Massage Method - Customize your relaxation experience with our Heating Pad's three high-frequency vibration massage modes and three levels of heating. Enjoy the soothing benefits of both heat and massage simultaneously, tailored to your preferences for ultimate comfort.Three switchable temperatures, 104 ℉, 111 ℉, and 122 ℉ (40 ℃, 45 ℃, and 50 ℃) | Intelligent Security Settings - Rest easy knowing that our Heating Pad is equipped with intelligent security features. It automatically shuts down after 10 minutes to prevent overheating, ensuring a safe and worry-free experience, even during deep sleep. | Cordless Convenience - Say goodbye to tangled cords and limited mobility. Our Heating Pad is powered by rechargeable batteries, providing you with the freedom to use it anywhere, anytime. With a full power charge, enjoy 2-5 hours of uninterrupted warmth and relaxation. | Versatile Applications - Whether you're in bed, working, cooking, or enjoying outdoor activities, our Heating Pad is your perfect companion. Made of high-quality soft fabric, it is lightweight, breathable, and comfortable against your skin. The adjustable elastic belt ensures a secure fit for all waist circumferences.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Menstrual-Heating-Vibration-Portable-Electric/dp/B08LMT1189/ref=sr_1_2?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health%2Band%2Bhousehold&amp;qid=1752139042&amp;sprefix=health%2Band%2Bhousehol%2Caps%2C321&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cobweb Duster with Extension Pole, Spider Web Brush &amp; Ceiling Cleaning Kit, 100" Microfiber Feather Duster Cleaner with Washable Head for Ceiling Fan, Furniture, Home</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>$8.99</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Brand: IVYROLL; Color: Set A: Spider Web Brush &amp; Ceiling Duster; Recommended Uses For Product: Fan, Ceiling; Special Feature: Extendable Handle; Handle Material: Stainless Steel || EXTENDABLE CONVENIENCE: Discover our duster kit with a telescoping 100-inch pole. Swap heads for flexible indoor and outdoor use. Effortlessly clear high areas like ceilings and fans, plus tough spots like vents | TWO-HEAD CLEANING: Our Duster Kit combines a spider web brush and bendable microfiber duster. Tackle cobweb removal and angle-clean fans with ease | REUSABLE &amp; FURNITURE-FRIENDLY: Our feather duster features a silicone-tipped for furniture-safe cleaning. The entire head is washable &amp; reusable, offering eco-friendly solutions | EFFORTLESS DUST REMOVAL: The dense and flexible bristles of the spider web brush effectively clear cobwebs from tight spaces. The kit's telescoping handle makes cleaning ceilings, fans, and vents an effortless task | COMPLETE CLEANING: The extendable stainless steel pole allows you to reach every nook and cranny, while the spider web brush and microfiber duster head ensure efficient and thorough cleaning. This kit is your go-to solution for a dust-free and cobweb-free environment</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/IVYROLL-Duster-Extension-Microfiber-Furniture/dp/B0C6DQS74L/ref=sr_1_4?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health%2Band%2Bhousehold&amp;qid=1752139042&amp;sprefix=health%2Band%2Bhousehol%2Caps%2C321&amp;sr=8-4&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Moleskin, 24-Hr Foot Relief, Foot Pain No More (2-Rolls)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>$14.98</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Health-Household-Moleskin-Relief-2-Rolls/dp/B09Q7NHS88/ref=sr_1_5?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health+and+household&amp;qid=1752139042&amp;sprefix=health+and+househol%2Caps%2C321&amp;sr=8-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Amazon Basics 2-Ply Soft Toilet Paper, 6 Rolls (1 Pack of 6), Equivalent to 37 Regular Rolls, Packaging May Vary</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>$5.36</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Brand: Amazon Basics; Special Feature: Septic Safe; Unit Count: 2100 Count; Material: Paper; Sheet Count: 2100; Ply Rating: 2-Ply; Recommended Uses For Product: Home; : ; : ; :  || SHIPMENT CONTAINS: 6 Rolls with 350 2-ply sheets per roll for a total of 2,100 sheets | GREAT VALUE: Each roll has 6.3 times more sheets than a regular roll, providing excellent coverage and durability | SEPTIC SAFE: Toilet paper is suitable for well-maintained sewer and septic systems | FSC-CERTIFIED TOILET PAPER (FSC N004130): Made with materials from well-managed forests, recycled materials, and/or other controlled wood sources | COMPARISON: If you like Angel Soft, you'll love Amazon Basics toilet paper | PACKAGING MAY VARY: Packaging may be different than what is shown but item and quality remain the same</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Basics-Toilet-Equivalent-regular/dp/B0CGWF2BRF/ref=sr_1_7?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health%2Band%2Bhousehold&amp;qid=1752139042&amp;sprefix=health%2Band%2Bhousehol%2Caps%2C321&amp;sr=8-7&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4 Pcs Travel First Aid Pouch,Empty Mini First Aid Pouch, Portable Outdoor First Aid Medical Rescue Bag Multi-Function Emergency Medicine Storage Organizer Bag Health and Household Supplies (Small)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>$5.91</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Portable-Multi-Function-Emergency-Organizer-Household/dp/B0DYDYK82Q/ref=sr_1_8?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health+and+household&amp;qid=1752139042&amp;sprefix=health+and+househol%2Caps%2C321&amp;sr=8-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Swiffer Sweeper Wet Mopping Cloths, Mops for Floor Cleaning, Open-Window Fresh, 24 Count</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$9.94</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Swiffer-Refills-Mopping-Cleaning-Purpose/dp/B00HZ6WFZA/ref=sr_1_10?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health+and+household&amp;qid=1752139042&amp;sprefix=health+and+househol%2Caps%2C321&amp;sr=8-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bounty Paper Towels Quick Size, White, 16 Family Rolls = 40 Regular Rolls (Packaging May Vary)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>$43.49</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Brand: Bounty; Unit Count: 1712.0 Count; Sheet Count: 1712; Ply Rating: 2-Ply; Special Feature: High Absorbent || Packaging May Vary | Most Awarded Paper Towel based on online media awards for the past 8 years | Picks up messes quicker* *vs. leading ordinary brand | 8 packs of 2 Family Rolls = 40 Regular Rolls | More Sheets, More Tasks in Every Roll* *vs. Bounty Double Plus | Quick Size Sheets for Messes Big &amp; Small* *vs. US leading ordinary brand | Durable Diamond Texture</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Bounty-Quick-Size-Paper-Towels-Family/dp/B079VP6DH5/ref=sr_1_11?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health%2Band%2Bhousehold&amp;qid=1752139042&amp;sprefix=health%2Band%2Bhousehol%2Caps%2C321&amp;sr=8-11&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HOFASON 3 Pairs/6 Pairs Rubber Gloves Cleaning, Waterproof Kitchen Gloves for Hand Protection</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>$4.99</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HOFASON-Dishwashing-Waterproof-Long-Lasting-Comfortable/dp/B0D78TFXG7/ref=sr_1_14?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health+and+household&amp;qid=1752139042&amp;sprefix=health+and+househol%2Caps%2C321&amp;sr=8-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Amazon Basics AAA Alkaline High-Performance Batteries, 1.5 Volt, 10-Year Shelf Life, 36 Count (Pack of 1)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>$11.80</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Number of Batteries: 36 AAA batteries required. (included); Brand: Amazon Basics; Battery Cell Composition: Alkaline; Battery Capacity: 1340; Recommended Uses For Product: Camera, Clock, Gaming Controller || IN THE BOX: 36-pack of 1.5 volt AAA alkaline batteries for reliable performance across a wide range of devices | DEVICE COMPATIBLE: Ideal for game controllers, toys, flashlights, digital cameras, clocks, and more | DESIGNED TO LAST: 10-year leak-free shelf life; store for emergencies or use right away | EASY USE &amp; STORAGE: Ships in easy-to-open packaging | SINGLE USE: These batteries are NOT rechargeable; for rechargeable options, check out Amazon Basics rechargeable batteries | For frequent/professional/industrial use, check out Amazon Basics Industrial AAA batteries.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Basics-AAA-High-Performance-36/dp/B00LH3DMUO/ref=sr_1_13?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health%2Band%2Bhousehold&amp;qid=1752139042&amp;sprefix=health%2Band%2Bhousehol%2Caps%2C321&amp;sr=8-13&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Basal Thermometer for Adults and Kids, Fast &amp; Accurate with Fever Alert, Mute Function, FSA/HSA Eligible - Essential for Babies and Adults, Lifetime Support Included</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>$5.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Brand: Tempx; Special Feature: Alarm; Color: White; Age Range (Description): Infant; Included Components: thermometer; Outer Material: Plastic; Specification Met: NSF, CE, HACCP, FDA, CCC, ISO 13485, WEEE, FCC, RoHS, CSA, ASME, ISO 9001, ASTM, ISO 9000, UL, NIST, EMC, ETL, ANSI, FE; : ; : ; :  || Fast &amp; Accurate Measurement: Experience precise temperature readings with our advanced forehead thermometer. Designed for quick and accurate results, this professional-grade device is easy to use and ensures hygienic, non-contact measurements. Ideal for both adults and children, it’s a reliable tool for any household or medical setting. | Color-Coded Temperature Indicators: Our thermometer features intuitive color-coded indicators that clearly show temperature levels. With simple visual cues and optional beeps, you can quickly assess whether a temperature is within a normal range or requires attention. | User-Friendly &amp; Readable Display: Equipped with a bright, large LED screen, this digital thermometer provides clear readings even in low light conditions. Just position the device near the forehead, press the button, and get an accurate temperature reading in just one second. | Versatile Functionality: This thermometer offers dual-mode functionality for measuring forehead, room, and object temperatures. It includes 35 memory slots, a one-touch mute option, switchable Fahrenheit/Celsius, and an automatic 30-second shut-off feature, making it perfect for the whole family. | Ergonomic &amp; Portable Design: Lightweight and ergonomically designed, our thermometer fits comfortably in your hand for easy use by both adults and children. Its compact size is perfect for travel, fitting conveniently into your bag or pocket so you can monitor temperatures wherever you go.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Thermometer-Adults-Accurate-Function-Eligible/dp/B0DGPSYMPX/ref=sr_1_16?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health+and+household&amp;qid=1752139042&amp;sprefix=health+and+househol%2Caps%2C321&amp;sr=8-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2Pcs Transparent Flip-Flop Gel Toe Guards Cushions Thong Protectors Silicone Thong Sandal Toe Protectors Use Safety Easy Installation,Ball-of-Foot Cushions,Health and Household,Inserts and Insoles</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>$6.99</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Brand: Pluzmecalm; Color: White; Product Benefits: Provides cushioning and support for toes ball of foot; Use for: Heel; Material: Plastic || Transparent Design: The transparent design of these gel toe guards allows them to blend seamlessly with your flip-flops or thong sandals, providing protection without drawing attention away from your shoes | Gel Cushioning: Made from soft and flexible gel, these toe guards provide cushioning and support for your toes, helping to prevent blisters, calluses, and other discomfort caused by friction | Easy Installation: These toe guards are easy to install and remove, making them a convenient and practical solution for protecting your feet while wearing flip-flops or thong sandals | Ball-of-Foot Cushions: In addition to protecting your toes, these gel toe guards also provide cushioning for the ball of your foot, helping to reduce pressure and discomfort caused by walking or standing for extended periods | Health and Household: These gel toe guards fall under the health and household category, making them a great addition to your home and personal care routine</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Transparent-Flip-Flop-Protectors-Installation-Household/dp/B0D1VBFFYL/ref=sr_1_19?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health+and+household&amp;qid=1752139042&amp;sprefix=health+and+househol%2Caps%2C321&amp;sr=8-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4Pcs Small Empty Travel Mini First Aid Pouch, Portable Outdoor First Aid Medical Rescue Bag Multi-Function Emergency Medicine Storage Organizer Bag Health and Household Supplies, First Aid Kits</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>$5.89</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Portable-Multi-Function-Emergency-Organizer-Household/dp/B0DY7DK55P/ref=sr_1_17?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health+and+household&amp;qid=1752139042&amp;sprefix=health+and+househol%2Caps%2C321&amp;sr=8-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1Pc Black Magnifier for Reading Tool Hand Held Magnifying Glass for Reading Identification Etc Glass Lens Reading Glasses,Health and Household,Mobility and Daily Living Aids,Visual Impairment Aids</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>$5.59</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Brand: Pluzmecalm; Color: Black; Batteries Required?: No; Lens Material: Plastic; Magnification Strength: 1 x || Portable Design: This handheld magnifying glass is designed for easy portability, making it ideal for reading, identification, and other tasks on the go | High-Quality Glass Lens: Featuring a precision-crafted glass lens, this magnifier provides clear and distortion-free magnification, helping to reduce eye strain and improve readability | Adjustable Focus: With its adjustable focus, this magnifier can be customized to suit your individual needs, ensuring that you get the perfect level of magnification for your tasks | Ergonomic Handle: The ergonomic handle provides a comfortable grip, making it easy to hold and use the magnifier for extended periods of time | Multi-Purpose Use: Suitable for a wide range of applications, including reading, hobbies, crafts, and identification, this magnifier is a versatile tool for anyone with visual impairment or simply needing a closer look</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Magnifier-Magnifying-Identification-Household-Impairment/dp/B0D422VKKF/ref=sr_1_20?crid=2L8J2E0DVBZWN&amp;dib=eyJ2IjoiMSJ9.n-cBYfbdBopFhOvkcdr9HmCvtNQT0d8fNRN8M-a_XM4RTDA7fyhJcOaU2i2SUbwKxf08VL-cnFl9EA_f_21NsEskLEDjVWJGU7X89WCKwb85XqzUQkwaWAWwGtaEBzLxGTPWtJFq8MHrh6fhw4F48eStceS607WMVDT1LTikRhSGY0yTQmlDL9-Z-N-xcHlcL2mzwSBb96OCpbmhzdh-PDDf2Nyi8J84iz1-P1JanYNe5Ngsa5HvVw6qJNdu9kkOPblLshmqZGI8s69xiIu4eTbUO0lW44qfWnns69bl7Sc.UNxmle8KvE1CQW2_pZmQV7iUgNA2BG8ZJsWNW8T7-ik&amp;dib_tag=se&amp;keywords=health+and+household&amp;qid=1752139042&amp;sprefix=health+and+househol%2Caps%2C321&amp;sr=8-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LISEN Retractable Car Charger, 69W USB C Car Accessories Adapter for iPhone 16 USB C Charger Fast Charging, Truck Accessories, Travel Essentials Gifts for Women Men, for iPhone 16 15 14 13 12 Pro Max</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>$16.98</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Brand: LISEN; Connectivity Technology: USB; Connector Type: USB Type C, USB Type A; Compatible Devices: Cameras, Cellular Phones, Smartwatches; Compatible Phone Models: iPhone 16, iPhone 16 Pro, iPhone 16 Pro Max, iPhone 16 Plus, iPhone 15, iPhone 15 Pro, iPhone 15 Plus, iPhone 15 Pro Max, iPhone 14, iPhone 14 Pro, iPhone 14 Pro Max, iPhone 14 Plus, iPhone 13, iPhone 13 Pro, iPhone 13 Pro… See more; : ; : ; : ; : ; :  || 𝐓𝐡𝐢𝐬 𝐢𝐬 𝐚 𝐬𝐭𝐚𝐧𝐝𝐚𝐫𝐝 𝟏𝟐𝐕 𝐜𝐚𝐫 𝐜𝐡𝐚𝐫𝐠𝐞𝐫 𝐎𝐍𝐋𝐘 𝐟𝐨𝐫 𝐜𝐡𝐚𝐫𝐠𝐢𝐧𝐠 𝐝𝐞𝐯𝐢𝐜𝐞𝐬 (𝐔𝐒𝐁 𝐩𝐨𝐰𝐞𝐫 𝐬𝐮𝐩𝐩𝐥𝐲). 𝐈𝐭 𝐝𝐨𝐞𝐬 𝐍𝐎𝐓 𝐬𝐮𝐩𝐩𝐨𝐫𝐭 𝐂𝐚𝐫𝐏𝐥𝐚𝐲, 𝐁𝐥𝐮𝐞𝐭𝐨𝐨𝐭𝐡, 𝐨𝐫 𝐝𝐚𝐭𝐚 𝐭𝐫𝐚𝐧𝐬𝐟𝐞𝐫. 𝐂𝐨𝐦𝐩𝐚𝐭𝐢𝐛𝐥𝐞 𝐰𝐢𝐭𝐡 𝐦𝐨𝐬𝐭 𝐩𝐡𝐨𝐧𝐞𝐬, 𝐭𝐚𝐛𝐥𝐞𝐭𝐬, 𝐚𝐧𝐝 𝐬𝐦𝐚𝐥𝐥 𝐞𝐥𝐞𝐜𝐭𝐫𝐨𝐧𝐢𝐜𝐬. 𝐋𝐈𝐒𝐄𝐍 𝐑𝐞𝐭𝐫𝐚𝐜𝐭𝐚𝐛𝐥𝐞 𝐂𝐚𝐫 𝐂𝐡𝐚𝐫𝐠𝐞𝐫 𝐢𝐬 𝐝𝐞𝐬𝐢𝐠𝐧𝐞𝐝 𝐟𝐨𝐫 𝐢𝐧𝐬𝐭𝐚𝐥𝐥𝐚𝐭𝐢𝐨𝐧 𝐚𝐧𝐝 𝐮𝐬𝐞 𝐢𝐧 𝐜𝐚𝐫 𝐜𝐢𝐠𝐚𝐫𝐞𝐭𝐭𝐞 𝐥𝐢𝐠𝐡𝐭𝐞𝐫𝐬 𝐨𝐧𝐥𝐲 𝐚𝐧𝐝 𝐢𝐬 𝐧𝐨𝐭 𝐜𝐨𝐦𝐩𝐚𝐭𝐢𝐛𝐥𝐞 𝐰𝐢𝐭𝐡 𝐜𝐡𝐚𝐫𝐠𝐢𝐧𝐠 𝐀𝐧𝐝𝐫𝐨𝐢𝐝 𝐝𝐞𝐯𝐢𝐜𝐞𝐬 𝐯𝐢𝐚 𝐦𝐢𝐜𝐫𝐨-𝐔𝐒𝐁 𝐩𝐨𝐫𝐭𝐬 | LISEN 4 in 1 Retractable Car Charger (5.9 x 2.64 x 1.38 inches) combines a compact design with powerful performance. Its 180° rotating plug fits standard 12V vehicle sockets. The retractable cord extends up to 31.5 inches, making it ideal for long trips, tight spaces like semi-truck cabins, or everyday use. A practical choice for personal needs or as a holiday gift ( Father Day Gifts &amp; Mothers Day Gifts &amp; Teacher Appreciation Gifts ), Essential for Honda Accord Accessories Users Needing Reliable Truck Charging Solutions. Weather-Resistant Construction Meets Honda Civic Accessories Durability Standards | Featuring dual USB ports and a retractable cable, the LISEN 4 in 1 Charger offers a clutter-free solution for charging multiple devices. Perfect for truck enthusiasts or as a thoughtful gift for drivers, it supports Android and iPhone users, including fast USB-C charging for devices like the iPhone 16 Pro Max. Keep your vehicle organized while ensuring efficient power delivery for all your tech. This is a standard 12V car charger ONLY for charging devices (USB power supply). It does NOT support CarPlay, Bluetooth, or data transfer. Compatible with most phones, tablets, and small electronics | 69W 4 Port Car Charger: Equipped with a 30W PD USB C port, a 12W USB A port, and additional charging options, this powerhouse charges up to four devices simultaneously. Ideal for fast charging the iPhone 16 Pro Max or other gadgets, it’s versatile enough for truck accessories or stylish car essentials. Its smart power distribution maintains high speed charging across all ports. Retract Instruction: Pull and hold the cable, gently extend 1 cm more, then release for automatic retraction | 【180° Adjustable Shockproof Retractable Car Charger】Featuring a military-grade stable structure, it ensures uninterrupted power supply even on bumpy roads. Specially designed for SUVs/engineering trucks, its shockproof design ensures stable charging on rugged terrain - essential for Honda crv 2025 Accessories users and Jeep Wrangler/Ford F150 owners. Note: Compatible exclusively with 12V car cigarette lighters (not USB ports). Please verify your vehicle's specifications before purchase | Compatible with iPhone 16 15 14 13 12 models and Android Samsung devices, this charger is a must have for tech savvy drivers. Whether upgrading ford accessories or seeking unique gifts for car lovers, it’s an excellent for multi device users. Streamline your charging setup with this efficient, space saving solution. To ensure flexible use of the product's rotation adjustment function, please maintain a fan-shaped clearance area of approximately 3 inches around the cigarette lighter</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/LISEN-Retractable-Charger-Charging-Accessories/dp/B0D4215HCX/ref=sr_1_1?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Upgraded Car Center Console Cover,Microfiber Leather Car Armrest Cover Cushion with 2 Storage Bags,Universal Car Armrest Storage Box Car Interior Accessories for Most Vehicles (Black)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>$9.47</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Car-Center-Console-Cover-Accessories/dp/B0CX8YW6J3/ref=sr_1_2?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Drop Stop - The Original Patented Car Seat Gap Filler (As Seen On Shark Tank) - Between Seats Console Organizer, Set of 2 and Slide Free Pad and Light</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>$19.99</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Drop-Stop-Original-Patented-Filler/dp/B00BYH6C1E/ref=sr_1_4?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive+accessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Car Phone Holder for Magsafe [78+LBS Strongest Suction &amp; 2400gf Strongest Magnetic] 360° Adjustable Car Phone Mount, Phone Holders for Your Car for iPhone 16 Pro Max 15 14 13 12 Plus (Carbon Fiber)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>$26.97</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Brand: ANDERY; Color: Carbon Fiber; Compatible Devices: Smartphones; Compatible Phone Models: All Magsafe Case, for iPhone 16, iPhone 16 Pro, iPhone 16 Pro Max, iPhone 16 Plus, iPhone 15 Pro max, iPhone 15 Pro, iPhone 15 Plus, iPhone 15, iPhone 14 Pro max, iPhone 14 Pro, iPhone 14 Plus, iPhone 1… See more; Mounting Type: No.1 Suction Car Mount || 360° Rotation &amp; Dual-Axis Adjustment: This car phone holder features a 360° rotating base and 210° dual-axis folding metal arms, allowing easy angle adjustments to suit your needs. Whether in the car or at the office, switch between portrait and landscape modes effortlessly. Its unique folding design reduces the mount's size by 50% when not in use, keeping your space tidy. Tested over 3000 times for durability, it remains stable and reliable for long-term use. (Protected by US Design Patent No. US D1,076,905 S) | Strong Suction &amp; Stable Hold: This car phone mount uses advanced rotating-lock vacuum suction, boosting suction by 45% compared to traditional press-on mounts. It stays stable on bumpy roads or during sudden stops. The 4-layer high-strength nano gel suction cup supports up to 78lbs and holds firm in extreme temperatures (-40°F to 300°F). After 9999+ durability tests and 200+ reattachments, it can be cleaned and regain 99% of its suction power for lasting stability. | Stronger Magnetic Force: With 22 high-performance N55 magnets, this mount's magnetic strength is 200% stronger than standard magnets, providing a top-tier hold with up to 2400gf of force. It can support the weight of up to 50 phones. After 5000 vibration tests and extreme road simulations, your phone stays secure during bumps, sudden stops, or sharp turns. The precise magnetic design ensures strong adhesion without disrupting phone signals for clear navigation and calls. | Circular Cooling Design: This magnetic phone holder for cars features a unique circular vent design that reduces contact between your phone and the holder, improving airflow and preventing overheating. Whether you're using GPS on a long drive or video calling during your commute, it keeps your phone cool, extending battery life and ensuring smooth performance. Enjoy a hassle-free experience, with your device running efficiently throughout your entire journey. | Broad Compatibility &amp; 1s Easy Installation: This cell phone car mount is designed for iPhone 16/15/14/13/12 series and for all MagSafe devices, plus it includes a magnetic ring to provide the same strong magnetic hold for non-MagSafe phones. Whether your phone is bare or in a case, it attaches in just one second with one hand. Its exceptional compatibility works with various car models, ensuring a secure and easy fit in any vehicle. Installation is quick and effortless—just snap it on and go!</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Magsafe-Strongest-Suction-Magnetic-Adjustable/dp/B0DN1S1YLV/ref=sr_1_5?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive+accessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Qifutan Dash Mounted Holders Phone Holders for Your Car Phone Mount for Car Windshield Dashboard Air Vent Universal Hands Free Automobile Cell Phone Holder Fit for iPhone Smartphone</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>$9.99</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Brand: Qifutan; Color: Carbon Fiber; Compatible Devices: Dash-Mounted Holders; Compatible Phone Models: Multi-Device Mount; Mounting Type: Best Dash Mounted Holders || Versatile Car Phone Mount: Cell phone car mount boasts premium suction strength and an upgraded air vent clip, allowing for flexible installation options on windshields, dashboards, and air vents. | Strong Suction Performance: Car phone holder comes with a double-locked suction cup made of heat-resistant TPU material, guaranteeing it stays firmly attached to your dashboard even in extreme heat. Reactivate its sticky power by washing with water and air-drying. | Fully Adjustable Design: Featuring a 360-degree rotating ball joint and an adjustable extension arm ranging from 3.7 inches to 5.9 inches, this dash-Mounted phone mount for cars allows you to customize your phone's placement to any desired angle or distance, offering maximum viewing flexibility. | Universal Fit: Engineered to accommodate all smartphones ranging in size from 4.0 to 7.1 inches and devices up to 14mm thick, including GPS devices, this phone stand for trucks includes a one-touch release mechanism for swift and easy phone mounting. It serves as an excellent accessory for drivers requiring constant phone access, enhancing driving stability and safety. | Comprehensive Safety Features: The car phone mount for iPhone includes a unique hook design fortified with stainless steel and padded with thick plastic, ensuring secure engagement with air vent blades without causing scratches. The robust silicone rubber provides sturdy protection, even on bumpy roads. Note: Not suitable for circular air vents.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Qifutan-Windshield-Dashboard-Automobile-Smartphone/dp/B0DSFJY5VD/ref=sr_1_7?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-7&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Govee Car LED Lights, Smart Car Interior Lights with App Control, RGB Lights with DIY Mode and Music Mode, 2 Lines Design LED Lights for Cars with Car Charger, 12V</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>$15.99</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Item dimensions L x W x H: 1.65 x 11.5 x 3.43 inches; Brand: Govee; Color: RGB; Form Factor: Strip; Recommended Uses For Product: Vehicle Interior; Auto Part Position: Rear; Included Components: Clips, zip ties, 4*0.79ft Car led lights, Adapter, Control box; : ; : ; :  || Creative DIY Mode: Choose from 16 million available colors or customize car led light effects to your liking in DIY mode via Govee Home app. Make your car stand out in unique style with creative freedom and outdoor decorations. | Dynamic Music Mode: Built-in mic helps interior car lights sync with any music type. Liven up your road trips, weekend getaways or evening commute with colors that dance vibrantly to your favorite songs. | Smart App Control: Manage the colors and brightness of car lights or choose music mode by one simple tap with Govee Home app. Enjoy a comfortable and vibrant driving experience with convenient control. | 2 Lines Design: 2 lines design connect the 4 car led strip lights, attaching the inside car lights easily to any car model without worrying about exposed wiring or an untidy look. | Simple Installation: Before you install, make sure the installation surface is clean and dry. Then attach the led lights for car to your vehicle with adhesive and support clips. Rubber tubing outside protects lights from water spills. | Note: Once you've decided on where to install it, please do not tear the light strip multiple times to prevent the adhesive losing its stickiness. The included zip ties can be used for double reinforcement.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Interior-Govee-Two-Line-Waterproof-Controller/dp/B07Q6CPQK4/ref=sr_1_8?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive+accessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EcoNour Car Windshield Sunshade | Blocks 99% Heat &amp; Keeps Interior Cool | Universal Fits Cars, SUVs, Trucks | Automotive Sun Screen, Visor &amp; Car Accessories for Summer | Medium (64x32 Inches)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>$12.98</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Brand: EcoNour; Color: Black/Silver; Product Dimensions: 64"L x 32"W; Closure Type: Snap; UPC: 638455765177 || Enhanced Sun Protection: Shield your car interior from harmful UV rays with EcoNour’s durable car window shades. Crafted from high-quality 240T polyester, this heat shield automotive effectively blocks sunlight, keeping your vehicle cool and safeguarding your dashboard and upholstery. An essential sun visor for car for a comfortable drive. | Reinforced Overlapping Design: Unlike traditional window sun blockers, EcoNour features a unique overlapping design that extends up to 8 inches for a snug fit. Ideal for windshields up to 64x32 inches, this window shade for car windshield is perfect for small sedans, mini SUVs, and hatchbacks. | Compact and Easy to Use: This cool window sunshade easily pops open, installs in seconds, and folds away for convenient storage in the included pouch. Ideal for those seeking a hassle-free, windshield sun shade foldable solution for daily use. | Durability You Can Trust: Made from premium 240T polyester, this automotive heat shield offers long-lasting performance and withstands extreme heat conditions. Keep your car cooler with this reliable car sun shade windshield designed for durability. | Choose the Right Fit: Available in multiple sizes, EcoNour’s shades for windows are tailored to fit various vehicle models. Refer to the size chart to pick the best car window shade for maximum protection.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/EcoNour-Reflective-Protection-Sedans-64x32in/dp/B01KIFISX2/ref=sr_1_10?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-10&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Armor All Car Cleaning Wipes - 90 Count, Safely Cleans Interior Surfaces, Removes Tough Dirt, Matte Finish, Disposable and Convenient</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>$9.58</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Scent: Unscented; Brand: Armor All; Sheet Count: 90; Package Information: Canister; Item Form: Wipes || [Safe On Car Interiors]: One 90-count canister of Armor All Cleaning Wipes create a natural “just detailed” look for your car | [Lifts Dirt Away]: Effective cleaning in a convenient, disposable wipe | [Natural Look]: Matte finish creates a natural look | [Safe on Delicate Surfaces]: Interior car wipes easily remove ground-in dirt, dust and grime | [Use On Multiple Surfaces]: Effective on vehicle dashboards, vinyl, fabric, carpet, consoles, leather and more; Not recommended for use on glass or painted surfaces; Not for personal cleansing | [Won't Dry Out]: Won’t dry out, damage or fade automotive surfaces | [Lint-Free]: Lint-free – car cleaning wipes won’t leave greasy residue on hand</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Armor-All-Cleaning-Interior-Exterior/dp/B0BNW6FFS5/ref=sr_1_11?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-11&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Amazon Basics Emergency Seat Belt Cutter and Window Hammer Tool, Car Accessories, 2 Pack, SW-835</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>$8.00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Brand: Amazon Basics; Item Weight: 0.14 Kilograms; Number of Items: 1; Global Trade Identification Number: 00841710189698, 00192233056968; Manufacturer: AmazonBasics || 2-in-1 emergency-escape tool provides a window hammer and seat-belt cutter; 2-pack | Hard tungsten metal double-head hammer for quickly breaking a car-door window | Sharp blade for easily cutting through a seat belt; bright-orange plastic handle provides a secure grip | Designed to help escape from a sinking, over-turned, crashed, or burning car | Protective bracket included for safe storage; store in center console or driver-side door pocket | The hammer doesn't work for the laminated glass</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/AmazonBasics-Emergency-Cutter-Window-Accessories/dp/B073JCMTW2/ref=sr_1_13?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-13&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Yuoyar 2 Packs Sunglasses Holders for Car Visor - Magnetic Leather Sunglasses Holder and Ticket Card Clip - Car Visor Accessories (Black)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>$7.99</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Yuoyar-Packs-Sunglasses-Holders-Visor/dp/B0BBQ4DCPW/ref=sr_1_14?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-14&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Car Seat Gap Filler 2 Pack, Universal Fit PU Leather Car Seat Gap Plug to Fill The Gap Between Seat and Console, Car Seat Crevice Blocker Stop Things from Dropping</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>$11.19</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Hiseanllo-Universal-Leather-Between-Dropping/dp/B0CJRVK5Q1/ref=sr_1_16?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive+accessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Aujen Silicone License Plate Frames Black, 2 Pack Car License Plate Frame, Universal US Car Black License Plate Holders Brackets Rust-Proof, Rattle-Proof, Weather-Proof Car Accessories(Black)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>$9.90</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Color: Black; Brand: Aujen; Vehicle Service Type: Car; Product Dimensions: 6.3"L x 12.6"W; Item Weight: 150 Grams || For U.S. License plate. - Aujen license plate frames use the high quality silicone materials, which protect license plate from rusting and damaging. This license plate frame black is more long-lasting than plastic frame. | Rust-proof. Rattle-proof. Weather-proof Car Accessories. - Made from industrial-grade silicone, this liscen plate frame have soft flexible surface that prevents any scratches or rattles. And these lisences plate frame will not rust even if it is exposed all year round to wind and rain. | Humanized design - Our automotive license plate frames have 3 drainage holes to release water. Black matte material does not discolor or rust and gets better with use. | Totally street legal - With zero license plate &amp; sticker obstruction, this license plate frame for car won’t bring you trouble. No more worrying about being stopped by the police. | All-rounded Protection - Aujen silicone licence plate frames are designed to provide an all-rounded protection to your car plate. The soft silicone material can effectively prevent the car plate from deformation and the car paint from scratches!</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Universal-BracketsRust-Proof-Rattle-Proof-Weather-Proof-Accessories/dp/B07YZFM2FQ/ref=sr_1_17?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-17&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AstroAI Tire Inflator Portable Air Compressor Tire Air Pump for Car Tires - Car Accessories, 12V DC Auto Pump with Digital Pressure Gauge, Emergency LED Light for Bicycle, Balloons, Yellow</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>$27.17</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Brand: AstroAI; Voltage: 12 Volts; Recommended Uses For Product: Pump Up; Power Source: Corded Electric; Noise Level: 80 dB || TOUGHULTRA TECHNOLOGY, ENHANCED DURABILITY: This tire inflator is manufactured with AstroAI’s unique ToughUltra technology, so all of its core parts, including its cylinder, motor gears, and connection rod, are built using a powder metallurgy integrated molding technique. This revolutionary manufacturing process greatly enhances the inflator’s durability and increases its service life by 30%. | PROGRAMMABLE INFLATION: Use the "M" button to set your desired pressure unit, and then press the "+" and "-" buttons to set the desired pressure. The air compressor will automatically shut off when it reaches the pre-set pressure (Please make sure the pressure you set is higher than the current pressure of your tire). | COMPACT SIZE &amp; EASY TO STORE: Featuring a lightweight and compact design, this handy and portable tire inflator can easily fit into glove compartments, seats, trunks, and more. When it isn’t being used, it’s almost unnoticeable. | SMART PRESET &amp; AUTO OFF: The tire inflator’s digital screen provides accurate readouts and 4 pressure units to choose from while its independent buttons allow for intuitive control. You can easily preset the tire pressure and not worry about constantly monitoring it, this smart inflator will automatically shut off once it reaches the desired pressure. | EASY NIGHTTIME USE: Equipped with a backlit screen and a flashlight, this tire inflator brings convenient use, even in dim environments. Its independent LED Button enables one-press flashlight operation. Great gifts for men and women.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/AstroAI-Portable-Compressor-Inflator-Motorcycle/dp/B07QR4Q42L/ref=sr_1_20?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-20&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Magnelex Car Windshield Sunshade | Innovative No-Light-Pass Technology for Maximum Protection | Foldable Sun Shade Keeps Your Vehicle Cool | Fit for Cars, Trucks, and SUVs | Large (63 x 33.8 in)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>$14.38</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Brand: Magnelex; Color: Silver-Black; Product Dimensions: 63"L x 33.8"W; Closure Type: Hook and Loop; UPC: 090222546196 || Ultimate Sun Protection: Experience a cooler and more comfortable atmosphere inside your vehicle on scorching summer days. Our car window shade for windshield not only shields against harmful UV rays but also significantly reduces the heat, promising you a refreshing start every time. | Premium Quality 240T reflective polyester material blocks heat &amp; sun. Keeps your vehicle cool and protects against damage caused by hot sunlight. | Storage bag included. You can easily stash the windshield sunshade in the storage bag or store long term. | Steering Wheel Sunshade Included: Enhances comfort by preventing the steering wheel from overheating, thus protecting your hands and steering wheel from fading and cracking. | Perfect Fit for Your Car: Refer to our size chart to select the ideal windshield sun shade for your vehicle. Our large windshield sunshades measure 63 x 33.8 inches, ensuring snug and effective coverage for enhanced protection.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Magnelex-Windshield-Sunshade-Reflective-Polyester/dp/B074DLLGQ2/ref=sr_1_22?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-22&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Airmoto Tire Inflator Portable Air Compressor - Air Pump For Car Tires with Digital Pressure Gauge, LED Light and Auto Shut-Off Function - Cordless Pump for Car, Motorcycle, Bicycle, Balls and More</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>$63.99</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Brand: Airmoto; Voltage: 7.4 Volts; Recommended Uses For Product: Tire Inflation; Power Source: Battery Powered; Noise Level: 78 dB || QUICK &amp; ACCURATE: Built with the highest quality materials, Airmoto is a portable tire inflator for car, trucks, SUVs, motorcycles, and bicycles. Quickly inflate your vehicle's tires in just minutes with precision accuracy up to 120 PSI. Small and compact car air pump that fits in your glove box or trunk. | AUTO SHUT OFF: Use the “+” and “-” control buttons on the Airmoto to easily select your desired pressure, simply connect the air hose to your car and press the middle “Start” button on the electric air pump. Once the correct pressure has been reached the Airmoto will automatically shut off. The cordless car tire pump makes it easy to reach all tires without a hassle. | MAIN HIGHLIGHTS: Easily change between PSI, kPa, BAR, and KG/CM pressure units with a push of a button; Easy to read large LCD; Digital Tire Pressure Gauge; Built-in LED flashlight for low light conditions; Deflate button for decreasing pressure; Air Hose stores inside; Powerful 2000 mAh rechargeable battery with fast recharging; Rated to 120 PSI. NOTE: Battery performance depends on a number of factors: -Tire Size &amp; Type: Inflating larger or high-pressure tires can drain the battery more quickly. -Temperature: Cold weather can reduce battery efficiency. -Proper Charging: For optimal battery performance it is recommended to fully charge the pump before every use. | INFLATES ANYTHING: Includes 3 attachments and air hose. Use the Schrader valve on cars, SUVs, motorcycles, and bicycles. Use the Presta valve for a bike tire pump. Needle adapter for sports equipment like basketballs. General adapter for cushions, air pillows and similar. NOTE: Airmoto is not designed for large volume uses like air mattresses, paddle boards or heavy load tires that require a small air compressor. | INVEST IN PEACE OF MIND: Perfect gifts for women and gifts for men. Conveniently store this portable air compressor for car tires in your glove box or garage, ready for use whenever needed. The package comprises 1* Airmoto Car Tire Inflator, 1* Air Hose with Schrader attached, 1* General Nozzle Cone, 1* Needle Adapter, 1* Presta Adapter, 1* USB-C Charging Cable, 1* Storage Pouch and 1* User Manual. For any questions or concerns, please feel free to contact us.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Airmoto-Tire-Inflator-Air-Compressor/dp/B094DMH7ZM/ref=sr_1_23?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive%2Baccessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-23&amp;th=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Amazon Basics Car Cup Holder Expander with Adjustable Base, Fits Large Bottles 3.4 to 3.8 in Diameter, Securely Holds Yeti, Hydro Flask and More, Black</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>$11.99</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Color: black; Material: Acrylonitrile Butadiene Styrene; Brand: Amazon Basics; Product Dimensions: 4.4"L x 4.4"W x 6.25"H; Manufacturer: Amazon || Cup holder expander for keeping beverage cups and bottles secure while driving | Crafted from durable ABS plastic, this cup holder is built to withstand rugged driving conditions, ensuring longevity and reliability. | Featuring Flexible rubber grip tabs inside allow for easy cup and bottle placement and removal, preventing spills and tipping. | Ideal for use in cars, trucks, SUVs, recreational vehicles such as boats, RVs, and more. Its expandable base adjusts to fit into most vehicles' cup holders between 2.5-3.75 inches. Not recommended for 2019-2023 RAV4, 2009-2018 Forester, 2020-2024 Outback models. | Compatible with Yeti Ramblers (20, 26, and 30 ounces); Hydro Flasks (32 and 40 ounces); Nalgenes (30, 32, 38, and 48 ounces); Beverage containers between 3.4-3.8 inches; and most 32-40 ounce bottles; Note: does not fit Rambler 14 ounce mugs</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Basics-Expander-Adapter-Adjustable/dp/B08L9GWSPB/ref=sr_1_40?crid=3JDFNG4TCGOXB&amp;dib=eyJ2IjoiMSJ9.KB_sEFmgFAKHOzq639ovhNnPUcHB4WJP09KuJl2KUl0g67aH7O_ipRqgzqMTjfDWFuAN1DllnR-hBX5Wc2HbSzsW4t8ufx0ZxmlfPT6EVK3X4sMFdrF8xG89oZwpynlAbKG0-Cn4rShWXtdgMHslplvgrao3-CUQvviU8cy6h23plIbCPVsjgf__zMjS0UiZCNzHyF_qkBKccC0iG0OelK4qPPen5WpNOWpayAUsZt5pI-Vuy0R6wNEnPXA51YaFzorM4J_ZJ4LfYIDhmcfzqc_PsmmF-7qBCHG3AlI7AnI.o4nt4Vzb85gsIXN-cJLBaqmJaZdkjWQdsZIh9oVJtXU&amp;dib_tag=se&amp;keywords=automotive+accessories&amp;qid=1752139206&amp;sprefix=automotive%2Caps%2C297&amp;sr=8-40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
